--- a/ig/branch/dev/StructureDefinition-Treatment.xlsx
+++ b/ig/branch/dev/StructureDefinition-Treatment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="357">
   <si>
     <t>Property</t>
   </si>
@@ -269,6 +269,10 @@
   </si>
   <si>
     <t>Describes the event of a patient consuming or otherwise being administered a medication.  This may be as simple as swallowing a tablet or it may be a long running infusion.  Related resources tie this event to the authorizing prescription, and the specific encounter between patient and health care practitioner.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1242,10 +1246,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1715,13 +1719,13 @@
         <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>78</v>
@@ -1735,10 +1739,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1749,7 +1753,7 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>78</v>
@@ -1758,19 +1762,19 @@
         <v>78</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1820,13 +1824,13 @@
         <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>78</v>
@@ -1852,10 +1856,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1866,7 +1870,7 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>78</v>
@@ -1875,16 +1879,16 @@
         <v>78</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1935,19 +1939,19 @@
         <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>78</v>
@@ -1967,10 +1971,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1981,28 +1985,28 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2052,19 +2056,19 @@
         <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>78</v>
@@ -2084,10 +2088,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2098,7 +2102,7 @@
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>78</v>
@@ -2110,16 +2114,16 @@
         <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2145,13 +2149,13 @@
         <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>78</v>
@@ -2169,19 +2173,19 @@
         <v>78</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>78</v>
@@ -2201,21 +2205,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>78</v>
@@ -2227,16 +2231,16 @@
         <v>78</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2286,25 +2290,25 @@
         <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>78</v>
@@ -2318,14 +2322,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2344,16 +2348,16 @@
         <v>78</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2403,7 +2407,7 @@
         <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -2421,7 +2425,7 @@
         <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>78</v>
@@ -2435,14 +2439,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2461,16 +2465,16 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2520,7 +2524,7 @@
         <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -2532,13 +2536,13 @@
         <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>78</v>
@@ -2552,14 +2556,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2572,25 +2576,25 @@
         <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>78</v>
@@ -2639,7 +2643,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2651,13 +2655,13 @@
         <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>78</v>
@@ -2671,10 +2675,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2697,16 +2701,16 @@
         <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2756,7 +2760,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2768,16 +2772,16 @@
         <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>78</v>
@@ -2788,10 +2792,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2811,16 +2815,16 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2871,7 +2875,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -2883,13 +2887,13 @@
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>78</v>
@@ -2903,10 +2907,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2926,16 +2930,16 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2986,7 +2990,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -2998,13 +3002,13 @@
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>78</v>
@@ -3018,10 +3022,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3029,31 +3033,31 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3079,13 +3083,13 @@
         <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>78</v>
@@ -3103,31 +3107,31 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>78</v>
@@ -3135,10 +3139,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3161,13 +3165,13 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3194,13 +3198,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -3218,7 +3222,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3230,19 +3234,19 @@
         <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>78</v>
@@ -3250,10 +3254,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3264,10 +3268,10 @@
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>78</v>
@@ -3276,13 +3280,13 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3309,13 +3313,13 @@
         <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>78</v>
@@ -3333,25 +3337,25 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3365,10 +3369,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3376,31 +3380,31 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3426,13 +3430,13 @@
         <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>78</v>
@@ -3450,31 +3454,31 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>78</v>
@@ -3482,10 +3486,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3493,10 +3497,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
@@ -3505,16 +3509,16 @@
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3565,31 +3569,31 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>78</v>
@@ -3597,10 +3601,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3611,7 +3615,7 @@
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
@@ -3623,13 +3627,13 @@
         <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3680,31 +3684,31 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>78</v>
@@ -3712,10 +3716,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3738,13 +3742,13 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3795,7 +3799,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3807,16 +3811,16 @@
         <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -3827,10 +3831,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3838,28 +3842,28 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3910,31 +3914,31 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>78</v>
@@ -3942,10 +3946,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3965,16 +3969,16 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4025,7 +4029,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4037,19 +4041,19 @@
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>78</v>
@@ -4057,10 +4061,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4071,7 +4075,7 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>78</v>
@@ -4083,13 +4087,13 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4140,13 +4144,13 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>78</v>
@@ -4158,7 +4162,7 @@
         <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>78</v>
@@ -4172,14 +4176,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4198,16 +4202,16 @@
         <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4257,7 +4261,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4269,13 +4273,13 @@
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
@@ -4289,14 +4293,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4309,25 +4313,25 @@
         <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -4376,7 +4380,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4388,13 +4392,13 @@
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
@@ -4408,10 +4412,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4422,7 +4426,7 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -4434,13 +4438,13 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4467,13 +4471,13 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -4491,25 +4495,25 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
@@ -4523,10 +4527,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4534,10 +4538,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>78</v>
@@ -4546,16 +4550,16 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4606,25 +4610,25 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
@@ -4638,10 +4642,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4664,13 +4668,13 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4697,13 +4701,13 @@
         <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>78</v>
@@ -4721,7 +4725,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4733,19 +4737,19 @@
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>78</v>
@@ -4753,10 +4757,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4779,16 +4783,16 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4838,7 +4842,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4850,30 +4854,30 @@
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4884,7 +4888,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -4896,16 +4900,16 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4955,31 +4959,31 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>78</v>
@@ -4987,10 +4991,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5013,13 +5017,13 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5070,7 +5074,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5082,19 +5086,19 @@
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>78</v>
@@ -5102,10 +5106,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5128,13 +5132,13 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5185,7 +5189,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5197,13 +5201,13 @@
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5217,10 +5221,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5231,10 +5235,10 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>78</v>
@@ -5243,13 +5247,13 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5300,25 +5304,25 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5332,10 +5336,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5346,7 +5350,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
@@ -5358,13 +5362,13 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5415,13 +5419,13 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
@@ -5433,7 +5437,7 @@
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5447,14 +5451,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5473,16 +5477,16 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5532,7 +5536,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5544,13 +5548,13 @@
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5564,14 +5568,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5584,25 +5588,25 @@
         <v>78</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -5651,7 +5655,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5663,13 +5667,13 @@
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -5683,10 +5687,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5697,7 +5701,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -5709,13 +5713,13 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5766,25 +5770,25 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -5798,10 +5802,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5812,7 +5816,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -5824,16 +5828,16 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5859,13 +5863,13 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>78</v>
@@ -5883,31 +5887,31 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>78</v>
@@ -5915,10 +5919,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5929,10 +5933,10 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>78</v>
@@ -5941,13 +5945,13 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5974,13 +5978,13 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -5998,31 +6002,31 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>78</v>
@@ -6030,10 +6034,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6044,7 +6048,7 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
@@ -6056,16 +6060,16 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6091,13 +6095,13 @@
         <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>78</v>
@@ -6115,31 +6119,31 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>78</v>
@@ -6147,10 +6151,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6161,7 +6165,7 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -6173,16 +6177,16 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6232,31 +6236,31 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>78</v>
@@ -6264,10 +6268,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6278,7 +6282,7 @@
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
@@ -6290,16 +6294,16 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6349,31 +6353,31 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
@@ -6381,10 +6385,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6407,16 +6411,16 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6466,7 +6470,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6478,13 +6482,13 @@
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
